--- a/ldas/data/media/list.xlsx
+++ b/ldas/data/media/list.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R208"/>
+  <dimension ref="A1:R206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15878,27 +15878,23 @@
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>ぴえんのイラスト（男性）</t>
-        </is>
-      </c>
+      <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2022-08-20T23:52:07+00:00</t>
+          <t>2022-09-01T01:13:17+00:00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>247268f158cf89f21f1a8415c8384ba6ca3a31cb.png</t>
+          <t>ff28f94b24cfec3280d2a49e5cb68501f20446e4</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>iiif</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -15909,47 +15905,29 @@
       <c r="I205" t="n">
         <v>1270</v>
       </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>image/png</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
-          <t>2022-08-20T23:52:07+00:00</t>
-        </is>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>https://shared.ldas.jp/omeka-s/files/original/247268f158cf89f21f1a8415c8384ba6ca3a31cb.png</t>
-        </is>
-      </c>
+          <t>2022-09-01T01:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>file</t>
-        </is>
-      </c>
-      <c r="O205" t="inlineStr">
-        <is>
-          <t>9b7ed00ae56583e864c70efd742423b7d863cdc931d4edcceb64238a15fa3730</t>
-        </is>
-      </c>
-      <c r="P205" t="n">
-        <v>27510</v>
-      </c>
+          <t>iiif</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>https://1.bp.blogspot.com/-jlZlCg-8FAM/Xub_u8HTD1I/AAAAAAABZis/ZhUI05AZBEQpVinedZ6Xy-eIucmNuY2SQCNcBGAsYHQ/s180-c/pose_pien_uruuru_man.png</t>
-        </is>
-      </c>
-      <c r="R205" t="inlineStr">
-        <is>
-          <t>ぴえんのイラスト（男性）</t>
-        </is>
-      </c>
+          <t>https://iiif.dl.itc.u-tokyo.ac.jp/iiif/kunshujou/A00_6010/001/001_0001.tif/info.json</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -15960,25 +15938,25 @@
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr">
         <is>
-          <t>ぴえんのイラスト（女性）</t>
+          <t>あいう</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2022-08-20T23:52:07+00:00</t>
+          <t>2022-09-01T01:14:00+00:00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>5f3bc1e9697cb8a4efb435809c1832aa949aa41d.png</t>
+          <t>67605a521dc0a956ba1000ff407c9152bb1a0b1f</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>iiif</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -15989,205 +15967,31 @@
       <c r="I206" t="n">
         <v>1270</v>
       </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>image/png</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
-          <t>2022-08-20T23:52:07+00:00</t>
-        </is>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>https://shared.ldas.jp/omeka-s/files/original/5f3bc1e9697cb8a4efb435809c1832aa949aa41d.png</t>
-        </is>
-      </c>
+          <t>2022-09-01T01:22:29+00:00</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>file</t>
-        </is>
-      </c>
-      <c r="O206" t="inlineStr">
-        <is>
-          <t>7bd6851d9ebb23cd1423c689b6601bae4d8758684aaf1cca5e9e894082edddd0</t>
-        </is>
-      </c>
-      <c r="P206" t="n">
-        <v>29864</v>
-      </c>
+          <t>iiif</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>https://1.bp.blogspot.com/-ZOg0qAG4ewU/Xub_uw6q0DI/AAAAAAABZio/MshyuVBpHUgaOKJtL47LmVkCf5Vge6MQQCNcBGAsYHQ/s180-c/pose_pien_uruuru_woman.png</t>
+          <t>https://iiif.dl.itc.u-tokyo.ac.jp/iiif/kunshujou/A00_6010/001/001_0002.tif/info.json</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>ぴえんのイラスト（女性）</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>o:Media</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr"/>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>ぴえんのイラスト（男性）</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>2022-08-21T00:09:08+00:00</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>e631c58379db4e5d549023c043db4c6cb7dd8e88.png</t>
-        </is>
-      </c>
-      <c r="F207" t="n">
-        <v>1275</v>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I207" t="n">
-        <v>1270</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>image/png</t>
-        </is>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>2022-08-21T00:09:08+00:00</t>
-        </is>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>https://shared.ldas.jp/omeka-s/files/original/e631c58379db4e5d549023c043db4c6cb7dd8e88.png</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>file</t>
-        </is>
-      </c>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>9b7ed00ae56583e864c70efd742423b7d863cdc931d4edcceb64238a15fa3730</t>
-        </is>
-      </c>
-      <c r="P207" t="n">
-        <v>27510</v>
-      </c>
-      <c r="Q207" t="inlineStr">
-        <is>
-          <t>https://1.bp.blogspot.com/-jlZlCg-8FAM/Xub_u8HTD1I/AAAAAAABZis/ZhUI05AZBEQpVinedZ6Xy-eIucmNuY2SQCNcBGAsYHQ/s180-c/pose_pien_uruuru_man.png</t>
-        </is>
-      </c>
-      <c r="R207" t="inlineStr">
-        <is>
-          <t>ぴえんのイラスト（男性）</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>o:Media</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr"/>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>ぴえんのイラスト（女性）</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>2022-08-21T00:09:08+00:00</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>12a29f4162c178fcab652443237d62bdb9edf8c8.png</t>
-        </is>
-      </c>
-      <c r="F208" t="n">
-        <v>1276</v>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I208" t="n">
-        <v>1270</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>image/png</t>
-        </is>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>2022-08-21T00:09:08+00:00</t>
-        </is>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>https://shared.ldas.jp/omeka-s/files/original/12a29f4162c178fcab652443237d62bdb9edf8c8.png</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>file</t>
-        </is>
-      </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>7bd6851d9ebb23cd1423c689b6601bae4d8758684aaf1cca5e9e894082edddd0</t>
-        </is>
-      </c>
-      <c r="P208" t="n">
-        <v>29864</v>
-      </c>
-      <c r="Q208" t="inlineStr">
-        <is>
-          <t>https://1.bp.blogspot.com/-ZOg0qAG4ewU/Xub_uw6q0DI/AAAAAAABZio/MshyuVBpHUgaOKJtL47LmVkCf5Vge6MQQCNcBGAsYHQ/s180-c/pose_pien_uruuru_woman.png</t>
-        </is>
-      </c>
-      <c r="R208" t="inlineStr">
-        <is>
-          <t>ぴえんのイラスト（女性）</t>
+          <t>あいう</t>
         </is>
       </c>
     </row>
